--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02660202980041504</v>
+        <v>0.06003785133361816</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004191398620605469</v>
+        <v>0.001122713088989258</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009838104248046875</v>
+        <v>0.02177166938781738</v>
       </c>
     </row>
     <row r="8">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.4714881670907305</v>
+        <v>0.471337315014881</v>
       </c>
     </row>
     <row r="160">
@@ -1574,23 +1574,23 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-30</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -1600,90 +1600,100 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.04356980323791504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.0979769229888916</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="L166" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="M166" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
+      <c r="N166" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06003785133361816</v>
+        <v>0.0006129741668701172</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001122713088989258</v>
+        <v>0.0005118846893310547</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02177166938781738</v>
+        <v>0.01494288444519043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 2), (0, 3), (1, 2), (1, 0), (1, 1), (1, 3), (2, 2), (2, 0), (2, 1), (2, 3), (3, 2), (3, 0), (3, 1), (3, 3)]</t>
+          <t>[[0, 0], [0, 1], [0, 2], [0, 3], [1, 2], [1, 0], [1, 1], [1, 3], [2, 2], [2, 0], [2, 1], [2, 3], [3, 2], [3, 0], [3, 1], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0979769229888916</v>
+        <v>0.02402019500732422</v>
       </c>
     </row>
     <row r="166">
